--- a/biology/Médecine/Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale/Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale.xlsx
+++ b/biology/Médecine/Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale/Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_de_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étude épidémiologique auprès de femmes de la MGEN (Mutuelle Générale de l'Éducation Nationale), dite étude E3N, est une enquête de cohorte prospective. C’est la première grande étude française sur la santé des femmes.
 L’étude E3N est sous la triple tutelle de l'institut national de la santé et de la recherche médicale (Inserm), de l’université Paris-Saclay et de l’institut Gustave Roussy. Elle a été initiée en 1990 par l’épidémiologiste Françoise Clavel-Chapelon. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_de_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Données recueillies[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étude E3N porte sur environ 100 000 femmes françaises nées entre 1925 et 1950 et suivies depuis 1990. Ces volontaires, dites « femmes E3N », remplissent et renvoient des questionnaires papier, tous les 2 à 3 ans. Elles sont interrogées sur leur mode de vie (alimentation, activité physique, sédentarité, tabac, alcool, prise de médicaments, de traitements hormonaux, etc.), sur leur environnement et sur l'évolution de leur état de santé physique et mental. Leurs traitements médicaux sont enrichis par les données de remboursement de la MGEN. Les pathologies qu'elles déclarent sont validées et détaillées grâce à la collaboration des médecins traitants, des laboratoires d'anatomo-pathologie et des établissements d'hospitalisation.
 Toutes ces informations sont complétées par des données biologiques : 25 000 femmes E3N ont effectué un prélèvement sanguin et 47 000 ont fourni un prélèvement salivaire. Les chercheurs ont également rassemblé 10 000 échantillons de tumeurs cancéreuses du sein. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_de_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Pathologies étudiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cancer du sein est la première pathologie d’intérêt de l’étude E3N. L’objectif initial de l'étude était d’étudier les liens entre nutrition, hormones et cancer du sein. 
 Grâce au long temps de suivi et à la grande taille de la cohorte, les localisations cancéreuses les plus fréquentes (peau, côlon-rectum, utérus, ovaire, thyroïde, poumon, pancréas…) et d'autres pathologies chroniques répandues, comme l’asthme, le diabète, les pathologies cardiovasculaires, les pathologies neurovasculaires ou la maladie de Parkinson, sont également étudiées.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_de_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Principaux axes de recherche[2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étudier l’influence du mode de vie, des facteurs métaboliques (alimentation, activité physique), des traitements hormonaux, des médicaments, des facteurs reproductifs et des expositions précoces sur la santé des femmes ;
 Analyser le rôle de facteurs environnementaux et génétiques dans la survenue des cancers et des autres grandes pathologies chroniques, ainsi que dans la survie après ces maladies ;
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_de_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Calendrier de l'étude[3]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1989 : étude pilote
 1990 : étude nationale, envoi du questionnaire général no1 et des accords de participation
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89tude_%C3%A9pid%C3%A9miologique_aupr%C3%A8s_de_femmes_de_la_Mutuelle_g%C3%A9n%C3%A9rale_de_l%27%C3%89ducation_nationale</t>
+          <t>Étude_épidémiologique_auprès_de_femmes_de_la_Mutuelle_générale_de_l'Éducation_nationale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,11 +685,13 @@
           <t>Prolongements de l’étude E3N</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’étude E3N est la composante française de l'European Prospective Investigation into Cancer and Nutrition (EPIC), vaste consortium européen coordonné par le Centre international de recherche sur le cancer (CIRC) rassemblant 500 000 européens et européennes de dix pays. Le consortium EPIC étudie les liens entre alimentation et cancers.
 À partir de 2014, l'étude E3N, en s’élargissant aux membres de la famille des femmes E3N, se prolonge dans l’étude familiale E3N-Générations (à l’origine nommée E4N).
-En 2020, les cohortes E3N et E3N-Générations font partie de la grande enquête nationale « Santé, perception, pratiques, relations et inégalités sociales en population générale pendant la crise COVID-19 » (SAPRIS[4],[5]) qui vise à étudier la pandémie de covid-19 et les effets du confinement.
+En 2020, les cohortes E3N et E3N-Générations font partie de la grande enquête nationale « Santé, perception, pratiques, relations et inégalités sociales en population générale pendant la crise COVID-19 » (SAPRIS,) qui vise à étudier la pandémie de covid-19 et les effets du confinement.
 </t>
         </is>
       </c>
